--- a/ds3.xlsx
+++ b/ds3.xlsx
@@ -160,13 +160,14 @@
   <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="3" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="5" min="3" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="1" width="18.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.53"/>
   </cols>
   <sheetData>
